--- a/biology/Médecine/Œuf_clair/Œuf_clair.xlsx
+++ b/biology/Médecine/Œuf_clair/Œuf_clair.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92uf_clair</t>
+          <t>Œuf_clair</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En biologie animale et en médecine, l’œuf clair est le fruit d'une fécondation de deux gamètes qui a arrêté son développement à un stade très précoce. C'est un sac ovulaire non embryonné, une môle non hydatiforme. En anglais on parle de blighted ovum ou d’anembryonic gestation.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92uf_clair</t>
+          <t>Œuf_clair</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92uf_clair</t>
+          <t>Œuf_clair</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -537,18 +551,12 @@
           <t>Médecine humaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Chez la femme, un œuf clair, ou « grossesse non embryonnée », conduit à, par abus de langage — puisque de toute façon la grossesse n'était pas évolutive —, une fausse couche spontanée précoce.
-Épidémiologie
-Signes
-Clinique
-Examens complémentaires
-En l'absence de règles attendues, une femme peut être amenée à pratiquer des analyses de routine :
-dosage des βHCG : le sac ovulaire, ou blastocyste, secrète l'hormone gonadotrophine de façon tout à fait normale au cours de son développement précoce ; les dosages ne permettent pas de distinguer le caractère non embryonné du produit de la fécondation[1] ;
-par voie endovaginale, l'échographie gynécologique[2] révèle l'image d'un sac ovulaire de plus de 20 mm non embryonné, sans vésicule ombilicale[3].
-Hors routine, des analyses génétiques peuvent être effectuées sur le fruit de fausses couches précoces : 65 % des échantillons, prélevés dans le cadre de procréations médicalement assistées n'ayant pas abouti, révèlent des anomalies chromosomiques dans les villosités (en) du chorion[4].
-Prise en charge</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez la femme, un œuf clair, ou « grossesse non embryonnée », conduit à, par abus de langage — puisque de toute façon la grossesse n'était pas évolutive —, une fausse couche spontanée précoce.
+</t>
         </is>
       </c>
     </row>
@@ -558,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C5%92uf_clair</t>
+          <t>Œuf_clair</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,10 +581,56 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Médecine humaine</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Signes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Examens complémentaires</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En l'absence de règles attendues, une femme peut être amenée à pratiquer des analyses de routine :
+dosage des βHCG : le sac ovulaire, ou blastocyste, secrète l'hormone gonadotrophine de façon tout à fait normale au cours de son développement précoce ; les dosages ne permettent pas de distinguer le caractère non embryonné du produit de la fécondation ;
+par voie endovaginale, l'échographie gynécologique révèle l'image d'un sac ovulaire de plus de 20 mm non embryonné, sans vésicule ombilicale.
+Hors routine, des analyses génétiques peuvent être effectuées sur le fruit de fausses couches précoces : 65 % des échantillons, prélevés dans le cadre de procréations médicalement assistées n'ayant pas abouti, révèlent des anomalies chromosomiques dans les villosités (en) du chorion.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Œuf_clair</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C5%92uf_clair</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Médecine vétérinaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
